--- a/biology/Botanique/Licania_incana/Licania_incana.xlsx
+++ b/biology/Botanique/Licania_incana/Licania_incana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Licania incana est une espèce de plantes à fleurs de la famille des Chrysobalanaceae. C'est un arbuste ou un petit arbre présent en Amérique du Sud. C'est l'espèce type du genre Licania Aubl..
-Le nom vernaculaire Kali'na ancien Caligni est vraisemblablement à l'origine du nom du genre Licania Aubl.[3].
-On le connaît sous les noms de Caligni[4], Caligni blanc en Guyane, de Hicaquito, Icaquito au Venezuela, de Citicica[5], Ajuru[6] au Brésil, et de Marishiballi, Unikiakia au Guyana[4], Koko (Nenge tongo)[7].
-Au Suriname, on l'appelle Lengie Barkie, Sabanna ingie barkie, Anaura, Hegron amaura Kuepilan (Sranan tongo), Baoko, Bosoko, Tjuwa basoko (Saramaka), Onitjatja, Onikhiakhia, Onikhia (Arawak), Kuepirian  (Karib)[8], ou Kwepilan, Marishiballi, Oenikiakia, Sabana foengoe[4].
+Le nom vernaculaire Kali'na ancien Caligni est vraisemblablement à l'origine du nom du genre Licania Aubl..
+On le connaît sous les noms de Caligni, Caligni blanc en Guyane, de Hicaquito, Icaquito au Venezuela, de Citicica, Ajuru au Brésil, et de Marishiballi, Unikiakia au Guyana, Koko (Nenge tongo).
+Au Suriname, on l'appelle Lengie Barkie, Sabanna ingie barkie, Anaura, Hegron amaura Kuepilan (Sranan tongo), Baoko, Bosoko, Tjuwa basoko (Saramaka), Onitjatja, Onikhiakhia, Onikhia (Arawak), Kuepirian  (Karib), ou Kwepilan, Marishiballi, Oenikiakia, Sabana foengoe.
 </t>
         </is>
       </c>
@@ -514,10 +526,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Licania incana est un arbuste ou rarement un petit arbre, aux jeunes rameaux lenticellés, tomentelleux à pubérulents jaunâtres, devenant rapidement glabres, et avec l'insertion racinaire indistincte.  
-Le bois est de couleur brun rose, dur et très lourd (densité : 0,85 à 1,20). Les vaisseaux sont de diamètre inférieur à 150 µm, plus ou moins bien disséminés (2 à 6 par mm2), ne formant pas cependant d'amas distincts. Les thylles sont rares à abondants[7].
+Le bois est de couleur brun rose, dur et très lourd (densité : 0,85 à 1,20). Les vaisseaux sont de diamètre inférieur à 150 µm, plus ou moins bien disséminés (2 à 6 par mm2), ne formant pas cependant d'amas distincts. Les thylles sont rares à abondants.
 Les stipules sont linéaires, longues jusqu'à 2 mm, persistantes, pubescentes, adnées à l'extrême base du pétiole ou axillaires.
 Le pétiole est long de 2 à 5 mm, cylindrique, non glanduleux, tomentelleux à l'état juvénile.
 Le limbe mesurant 2,5-8,5 x l0,3-4(-5,5) cm, est épais-coriace, de forme oblongue à ovale-elliptique ou lancéolée, à apex aigu à acuminé (acumen généralement émoussé atteignant 10 mm de long), à base généralement arrondi (rarement subcunée), glabres sur le dessus, densément vélutineux-arachnoïde brun grisâtre en dessous (pilosité se détachant facilement).
@@ -534,7 +548,7 @@
 L'ovaire est inséré à la base du réceptacle, laineux (couvert de poils courts brun rougeâtre), avec le style tomenteux de même taille que les filets. 
 Le fruit est une drupe de couleur brun rougeâtre, pyriforme devenant globuleuse à maturité, d'environ 1,6 cm de diamètre, sillonnée irrégulièrement dans le sens de la longueur lorsqu'elle est immature.
 Le stipe est long d'environ 2 mm.
-Le péricarpe est fin, dur, fibreux, courtement tomentelleux à l'extérieur, tomenteux-hirsute à l'intérieur[4],[8],[9].
+Le péricarpe est fin, dur, fibreux, courtement tomentelleux à l'extérieur, tomenteux-hirsute à l'intérieur.
 </t>
         </is>
       </c>
@@ -563,10 +577,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Licania incana est présent du Venezuela au nord du Brésil en passant par le Guyana, le Suriname, et la Guyane[9].
-Licania incana est commun dans la région de Santárem (Pará)[10]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Licania incana est présent du Venezuela au nord du Brésil en passant par le Guyana, le Suriname, et la Guyane.
+Licania incana est commun dans la région de Santárem (Pará)
 </t>
         </is>
       </c>
@@ -595,9 +611,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Licania incana pousse dans les savanes, les lisères savanes/forêts[4], les savanes sur sable blanc du Suriname[11], et au Venezuela au sommets des bas tepui autour de 100–1 400 m d'altitude[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Licania incana pousse dans les savanes, les lisères savanes/forêts, les savanes sur sable blanc du Suriname, et au Venezuela au sommets des bas tepui autour de 100–1 400 m d'altitude.
 </t>
         </is>
       </c>
@@ -626,9 +644,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fruits de Licania incana particulièrement appréciés au Brésil[6], contiennent une pulpe  blanche, filandreuse, fondante et de saveur douce, comestible crue[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits de Licania incana particulièrement appréciés au Brésil, contiennent une pulpe  blanche, filandreuse, fondante et de saveur douce, comestible crue.
 </t>
         </is>
       </c>
@@ -657,9 +677,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[3] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « LICANIA incana. (Tabula 206.)
 Arbor trunco quatuor vel quinque-pedali, ad apicem ramos plurimos emittente. Folia alterna, ſubſeſſilia, ovata, acuminata, integerrima, fupernè virentia, ſubtùs incana, ſtipulata; stipulis oblongis, anguſtis, acutis. Flores ſeſſiles, ſpicati ; spicis axillaribus, &amp; terminalibus. Corollæ albæ. Drupa Candida, punctis rubris notata, edulis.
 Lignum olei rancidi odorem exhalat.
